--- a/examples/wangetal2018/out/ResultFiles/DR_1.0_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_1.0_b.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -171,12 +171,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -474,7 +480,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1113,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1135,10 +1141,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.8270969964974226</v>
+        <v>0.8423591229262191</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1149,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1157,10 +1163,10 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.0220592898983189</v>
+        <v>0.02322837376962336</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1168,10 +1174,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03718306151360915</v>
+        <v>0.03769143847224252</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1182,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1190,10 +1196,10 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.00768363579626328</v>
+        <v>0.007788688560568906</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1201,10 +1207,10 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01821644859645148</v>
+        <v>0.01846550885016876</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1226,7 +1232,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1234,10 +1240,10 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.6902292792261961</v>
+        <v>0.7015393172567955</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1270,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1278,10 +1284,10 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.00531351943347287</v>
+        <v>0.005960062277745347</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1289,10 +1295,10 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.02492866529967919</v>
+        <v>0.02612326233715358</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1300,10 +1306,10 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.004465085011447814</v>
+        <v>0.004544459679937616</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1314,7 +1320,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1325,7 +1331,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1336,7 +1342,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1347,7 +1353,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1358,7 +1364,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1369,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1380,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1396,10 +1402,10 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>15208.62929346466</v>
+        <v>16272.54085111551</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1407,10 +1413,10 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>11106.26298229229</v>
+        <v>11288.24925915436</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1418,10 +1424,10 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>462.7609575955123</v>
+        <v>470.3437191314317</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1443,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1451,10 +1457,10 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>30106895.40625538</v>
+        <v>31274882.30902179</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1465,7 +1471,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1476,7 +1482,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1487,151 +1493,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51">
-        <v>15.94288194956041</v>
-      </c>
-      <c r="C51">
-        <v>12.5</v>
-      </c>
-      <c r="D51">
-        <v>4616.973551999502</v>
-      </c>
-      <c r="E51">
-        <v>11709954.09521423</v>
-      </c>
-      <c r="F51">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G51">
-        <v>152.3785921886516</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52">
-        <v>20.39820863332774</v>
+        <v>16.73624178258632</v>
       </c>
       <c r="C52">
         <v>12.5</v>
       </c>
       <c r="D52">
-        <v>10591.65574146516</v>
+        <v>5680.88495528391</v>
       </c>
       <c r="E52">
-        <v>18396941.31104115</v>
+        <v>12877940.82119193</v>
       </c>
       <c r="F52">
         <v>16916025.69007904</v>
       </c>
       <c r="G52">
-        <v>194.9616339474045</v>
+        <v>159.9613526229309</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1639,27 +1630,53 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>12.07609986258336</v>
+        <v>20.39820874843895</v>
       </c>
       <c r="C53">
         <v>12.5</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>10591.6558958316</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>18396941.48782986</v>
       </c>
       <c r="F53">
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>115.4207314594561</v>
+        <v>194.9616350476124</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54">
+        <v>12.07609986273322</v>
+      </c>
+      <c r="C54">
+        <v>12.5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G54">
+        <v>115.4207314608884</v>
+      </c>
+      <c r="H54">
         <v>0</v>
       </c>
     </row>
@@ -1678,58 +1695,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1737,31 +1754,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2">
-        <v>46.38759926647365</v>
+        <v>46.40330171817326</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>8.758481331682836</v>
@@ -1773,19 +1790,19 @@
         <v>24.85484</v>
       </c>
       <c r="N2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O2">
-        <v>7841804.977502132</v>
+        <v>7776260.73369168</v>
       </c>
       <c r="P2">
-        <v>22.58209639434426</v>
+        <v>22.76830088682495</v>
       </c>
       <c r="Q2">
-        <v>0.01708159243780128</v>
+        <v>0.01722733977315378</v>
       </c>
       <c r="R2">
-        <v>48.37741267619025</v>
+        <v>48.5681964789658</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1793,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3">
-        <v>46.38755906107664</v>
+        <v>46.40325814367286</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>8.758481331682836</v>
@@ -1829,19 +1846,19 @@
         <v>18.64113</v>
       </c>
       <c r="N3">
-        <v>7841804.977502132</v>
+        <v>7776260.73369168</v>
       </c>
       <c r="O3">
-        <v>7082151.852362822</v>
+        <v>7009429.732307871</v>
       </c>
       <c r="P3">
-        <v>24.85058357413978</v>
+        <v>25.10173813648836</v>
       </c>
       <c r="Q3">
-        <v>0.01886082806629055</v>
+        <v>0.01905773826625098</v>
       </c>
       <c r="R3">
-        <v>50.7491879081449</v>
+        <v>50.9963238115398</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1849,31 +1866,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4">
-        <v>46.07231881831861</v>
+        <v>46.07231927330538</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>8.758481331682836</v>
@@ -1888,16 +1905,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O4">
-        <v>8054554.012560406</v>
+        <v>8054554.009030856</v>
       </c>
       <c r="P4">
-        <v>21.87249839089638</v>
+        <v>21.87249921067941</v>
       </c>
       <c r="Q4">
-        <v>0.01652968203807139</v>
+        <v>0.01652968265785519</v>
       </c>
       <c r="R4">
-        <v>47.77437283984765</v>
+        <v>47.77437284965235</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1905,31 +1922,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5">
-        <v>37.9596569596735</v>
+        <v>37.95965728000472</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>8.758481331682836</v>
@@ -1941,19 +1958,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N5">
-        <v>8054554.012560406</v>
+        <v>8054554.009030856</v>
       </c>
       <c r="O5">
-        <v>7241556.878318158</v>
+        <v>7241556.87110731</v>
       </c>
       <c r="P5">
-        <v>19.91380164919635</v>
+        <v>19.91380235717314</v>
       </c>
       <c r="Q5">
-        <v>0.01510311047349169</v>
+        <v>0.0151031110109267</v>
       </c>
       <c r="R5">
-        <v>50.22058759387311</v>
+        <v>50.22058761738826</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1961,31 +1978,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6">
-        <v>37.95965629042348</v>
+        <v>37.95965654416357</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>8.758481331682836</v>
@@ -1997,19 +2014,19 @@
         <v>31.06855</v>
       </c>
       <c r="N6">
-        <v>7241556.878318158</v>
+        <v>7241556.87110731</v>
       </c>
       <c r="O6">
-        <v>6301734.741766099</v>
+        <v>6301734.730529783</v>
       </c>
       <c r="P6">
-        <v>22.70158385853563</v>
+        <v>22.70158459000426</v>
       </c>
       <c r="Q6">
-        <v>0.01729257685678399</v>
+        <v>0.01729257741490252</v>
       </c>
       <c r="R6">
-        <v>53.6207384189828</v>
+        <v>53.62073846412943</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2017,31 +2034,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7">
-        <v>37.55675843079752</v>
+        <v>37.55675843189874</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>8.758481331682836</v>
@@ -2056,16 +2073,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O7">
-        <v>8005025.090809684</v>
+        <v>8005025.090800688</v>
       </c>
       <c r="P7">
-        <v>17.93311795705729</v>
+        <v>17.9331179594572</v>
       </c>
       <c r="Q7">
-        <v>0.01355545763539675</v>
+        <v>0.01355545763721134</v>
       </c>
       <c r="R7">
-        <v>47.9126005469447</v>
+        <v>47.91260054696993</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2073,31 +2090,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F8">
-        <v>37.5567584271985</v>
+        <v>37.55675842808188</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>8.758481331682836</v>
@@ -2109,19 +2126,19 @@
         <v>31.06855</v>
       </c>
       <c r="N8">
-        <v>8005025.090809684</v>
+        <v>8005025.090800688</v>
       </c>
       <c r="O8">
-        <v>7178315.642141548</v>
+        <v>7178315.642124212</v>
       </c>
       <c r="P8">
-        <v>19.86566136687379</v>
+        <v>19.86566136929815</v>
       </c>
       <c r="Q8">
-        <v>0.01507088043741694</v>
+        <v>0.01507088043925733</v>
       </c>
       <c r="R8">
-        <v>50.42818707266902</v>
+        <v>50.4281870727263</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2129,16 +2146,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>37.31823697281929</v>
@@ -2147,13 +2164,13 @@
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>8.758481331682836</v>
@@ -2185,16 +2202,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>37.31823697270735</v>
@@ -2203,13 +2220,13 @@
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>8.758481331682836</v>
@@ -2251,72 +2268,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2325,22 +2342,22 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.236697759983887</v>
+        <v>1.249528373372977</v>
       </c>
       <c r="I2">
-        <v>152.3785921886516</v>
+        <v>159.9613526229309</v>
       </c>
       <c r="J2">
-        <v>15.94288194956041</v>
+        <v>16.73624178258632</v>
       </c>
       <c r="K2">
-        <v>21379.7235519995</v>
+        <v>22443.63495528391</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.94288194956041</v>
+        <v>16.73624178258632</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2349,27 +2366,27 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>11709954.09521423</v>
+        <v>12877940.82119193</v>
       </c>
       <c r="Q2">
         <v>16916025.69007904</v>
       </c>
       <c r="R2">
-        <v>28625979.78529327</v>
+        <v>29793966.51127097</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2378,22 +2395,22 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.389852428036064</v>
+        <v>1.389852430514243</v>
       </c>
       <c r="I3">
-        <v>194.9616339474045</v>
+        <v>194.9616350476124</v>
       </c>
       <c r="J3">
-        <v>20.39820863332774</v>
+        <v>20.39820874843895</v>
       </c>
       <c r="K3">
-        <v>27354.40574146516</v>
+        <v>27354.40589583159</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.39820863332774</v>
+        <v>20.39820874843895</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2402,27 +2419,27 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>18396941.31104115</v>
+        <v>18396941.48782986</v>
       </c>
       <c r="Q3">
         <v>16916025.69007904</v>
       </c>
       <c r="R3">
-        <v>35312967.00112019</v>
+        <v>35312967.1779089</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2431,16 +2448,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.220130427291975</v>
+        <v>1.220130427294922</v>
       </c>
       <c r="I4">
-        <v>115.4207314594561</v>
+        <v>115.4207314608884</v>
       </c>
       <c r="J4">
-        <v>12.07609986258336</v>
+        <v>12.07609986273322</v>
       </c>
       <c r="K4">
-        <v>16194.29143772154</v>
+        <v>16194.29143792251</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2479,39 +2496,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3">
-        <v>7841804.977502132</v>
+        <v>7776260.73369168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4">
-        <v>7082151.852362822</v>
+        <v>7009429.732307871</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>8758481.331682835</v>
@@ -2519,31 +2536,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6">
-        <v>8054554.012560406</v>
+        <v>8054554.009030856</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>7241556.878318158</v>
+        <v>7241556.87110731</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8">
-        <v>6301734.741766099</v>
+        <v>6301734.730529783</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>8758481.331682835</v>
@@ -2551,23 +2568,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>8005025.090809684</v>
+        <v>8005025.090800688</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11">
-        <v>7178315.642141548</v>
+        <v>7178315.642124212</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12">
         <v>8758481.331682835</v>
@@ -2575,7 +2592,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>8014671.579439786</v>
@@ -2583,7 +2600,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>7199669.899331889</v>
@@ -2604,36 +2621,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112661858645112</v>
+        <v>8.112661993300655</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -2642,15 +2659,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520624901435</v>
+        <v>1150.520643998001</v>
       </c>
       <c r="G2">
-        <v>1.954780069391092E-05</v>
+        <v>2.120762051966973E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
@@ -2673,7 +2690,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>

--- a/examples/wangetal2018/out/ResultFiles/DR_1.0_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_1.0_b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="197">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -414,9 +414,87 @@
     <t>PI09</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
@@ -426,19 +504,37 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
   </si>
   <si>
     <t>N03</t>
@@ -1141,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.8423591229262191</v>
+        <v>0.8679161001437335</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1163,7 +1259,7 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.02322837376962336</v>
+        <v>0.0247000906721337</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -1174,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03769143847224252</v>
+        <v>0.03780492372745375</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1196,7 +1292,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.007788688560568906</v>
+        <v>0.007812139544263992</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1207,7 +1303,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01846550885016876</v>
+        <v>0.01852110670128315</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1229,7 +1325,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1240,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.7015393172567955</v>
+        <v>0.7245978557558685</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1284,7 +1380,7 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.005960062277745347</v>
+        <v>0.006115875311934341</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1295,7 +1391,7 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.02612326233715358</v>
+        <v>0.02665877245536718</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1306,7 +1402,7 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.004544459679937616</v>
+        <v>0.004687324253445504</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1402,7 +1498,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>16272.54085111551</v>
+        <v>17936.49086388935</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -1413,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>11288.24925915436</v>
+        <v>11659.27697453194</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1424,7 +1520,7 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>470.3437191314317</v>
+        <v>485.8032072721643</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1457,7 +1553,7 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>31274882.30902179</v>
+        <v>33156583.36220934</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
@@ -1531,7 +1627,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -1607,22 +1703,22 @@
         <v>101</v>
       </c>
       <c r="B52">
-        <v>16.73624178258632</v>
+        <v>17.26106480608766</v>
       </c>
       <c r="C52">
         <v>12.5</v>
       </c>
       <c r="D52">
-        <v>5680.88495528391</v>
+        <v>6384.683126259679</v>
       </c>
       <c r="E52">
-        <v>12877940.82119193</v>
+        <v>13656007.70601235</v>
       </c>
       <c r="F52">
         <v>16916025.69007904</v>
       </c>
       <c r="G52">
-        <v>159.9613526229309</v>
+        <v>164.97749673805</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1633,22 +1729,22 @@
         <v>102</v>
       </c>
       <c r="B53">
-        <v>20.39820874843895</v>
+        <v>21.11419496922467</v>
       </c>
       <c r="C53">
         <v>12.5</v>
       </c>
       <c r="D53">
-        <v>10591.6558958316</v>
+        <v>11551.80773762967</v>
       </c>
       <c r="E53">
-        <v>18396941.48782986</v>
+        <v>19500575.65619699</v>
       </c>
       <c r="F53">
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>194.9616350476124</v>
+        <v>201.8048753535352</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1659,7 +1755,7 @@
         <v>103</v>
       </c>
       <c r="B54">
-        <v>12.07609986273322</v>
+        <v>12.45276713459083</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1674,7 +1770,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>115.4207314608884</v>
+        <v>119.0208351805791</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1687,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1757,16 +1853,16 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F2">
-        <v>46.40330171817326</v>
+        <v>46.43398380785894</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1784,25 +1880,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
-        <v>8700000</v>
+        <v>8087134.124758339</v>
       </c>
       <c r="O2">
-        <v>7776260.73369168</v>
+        <v>7763560.610471186</v>
       </c>
       <c r="P2">
-        <v>22.76830088682495</v>
+        <v>20.82869606408124</v>
       </c>
       <c r="Q2">
-        <v>0.01722733977315378</v>
+        <v>0.01566361053983882</v>
       </c>
       <c r="R2">
-        <v>48.5681964789658</v>
+        <v>48.90651307967069</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1813,16 +1909,16 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3">
-        <v>46.40325814367286</v>
+        <v>46.43402824151823</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1840,25 +1936,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>18.64113</v>
+        <v>9.320565</v>
       </c>
       <c r="N3">
-        <v>7776260.73369168</v>
+        <v>7383470.48563105</v>
       </c>
       <c r="O3">
-        <v>7009429.732307871</v>
+        <v>6983733.413012371</v>
       </c>
       <c r="P3">
-        <v>25.10173813648836</v>
+        <v>20.86501879090733</v>
       </c>
       <c r="Q3">
-        <v>0.01905773826625098</v>
+        <v>0.01573419056748264</v>
       </c>
       <c r="R3">
-        <v>50.9963238115398</v>
+        <v>51.4378185077119</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1869,16 +1965,16 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F4">
-        <v>46.07231927330538</v>
+        <v>46.09388459951245</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -1896,25 +1992,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>31.5</v>
+        <v>15.75</v>
       </c>
       <c r="M4">
-        <v>19.5731865</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N4">
-        <v>8758481.331682835</v>
+        <v>8409148.837925274</v>
       </c>
       <c r="O4">
-        <v>8054554.009030856</v>
+        <v>8045503.454959163</v>
       </c>
       <c r="P4">
-        <v>21.87249921067941</v>
+        <v>20.54662923723318</v>
       </c>
       <c r="Q4">
-        <v>0.01652968265785519</v>
+        <v>0.01543611459648476</v>
       </c>
       <c r="R4">
-        <v>47.77437284965235</v>
+        <v>48.08495546877581</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1925,16 +2021,16 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F5">
-        <v>37.95965728000472</v>
+        <v>37.98122757738599</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -1952,25 +2048,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L5">
-        <v>48.5</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M5">
-        <v>30.1364935</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N5">
-        <v>8054554.009030856</v>
+        <v>7504613.387573014</v>
       </c>
       <c r="O5">
-        <v>7241556.87110731</v>
+        <v>7219749.961964826</v>
       </c>
       <c r="P5">
-        <v>19.91380235717314</v>
+        <v>16.97723469397845</v>
       </c>
       <c r="Q5">
-        <v>0.0151031110109267</v>
+        <v>0.01279165196475025</v>
       </c>
       <c r="R5">
-        <v>50.22058761738826</v>
+        <v>50.62823080520224</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1981,16 +2077,16 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F6">
-        <v>37.95965654416357</v>
+        <v>37.98122886527205</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2008,25 +2104,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M6">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N6">
-        <v>7241556.87110731</v>
+        <v>6595535.474816897</v>
       </c>
       <c r="O6">
-        <v>6301734.730529783</v>
+        <v>6261171.714781519</v>
       </c>
       <c r="P6">
-        <v>22.70158459000426</v>
+        <v>17.02604887660238</v>
       </c>
       <c r="Q6">
-        <v>0.01729257741490252</v>
+        <v>0.01287218040604841</v>
       </c>
       <c r="R6">
-        <v>53.62073846412943</v>
+        <v>54.20100187771533</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2037,16 +2133,16 @@
         <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F7">
-        <v>37.55675843189874</v>
+        <v>37.56419815200018</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2064,25 +2160,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M7">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N7">
-        <v>8758481.331682835</v>
+        <v>8257374.936377738</v>
       </c>
       <c r="O7">
-        <v>8005025.090800688</v>
+        <v>7995694.375433915</v>
       </c>
       <c r="P7">
-        <v>17.9331179594572</v>
+        <v>16.76474303121396</v>
       </c>
       <c r="Q7">
-        <v>0.01355545763721134</v>
+        <v>0.01259711068032771</v>
       </c>
       <c r="R7">
-        <v>47.91260054696993</v>
+        <v>48.22683628855148</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2093,16 +2189,16 @@
         <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F8">
-        <v>37.55675842808188</v>
+        <v>37.56419815967705</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2120,25 +2216,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N8">
-        <v>8005025.090800688</v>
+        <v>7446250.424235797</v>
       </c>
       <c r="O8">
-        <v>7178315.642124212</v>
+        <v>7156509.291102832</v>
       </c>
       <c r="P8">
-        <v>19.86566136929815</v>
+        <v>16.81271690711657</v>
       </c>
       <c r="Q8">
-        <v>0.01507088043925733</v>
+        <v>0.01267056058146334</v>
       </c>
       <c r="R8">
-        <v>50.4281870727263</v>
+        <v>50.8411328457336</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2149,16 +2245,16 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F9">
-        <v>37.31823697281929</v>
+        <v>37.31823697279372</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2176,25 +2272,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N9">
-        <v>8758481.331682835</v>
+        <v>8263893.339292661</v>
       </c>
       <c r="O9">
-        <v>8014671.579439786</v>
+        <v>8005773.332778353</v>
       </c>
       <c r="P9">
-        <v>17.79913082275874</v>
+        <v>16.65497163759601</v>
       </c>
       <c r="Q9">
-        <v>0.01345362086728433</v>
+        <v>0.01251417906896379</v>
       </c>
       <c r="R9">
-        <v>47.88557757382083</v>
+        <v>48.19802509366935</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2205,16 +2301,16 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F10">
-        <v>37.31823697270735</v>
+        <v>37.31823697281623</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2232,25 +2328,921 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N10">
-        <v>8014671.579439786</v>
+        <v>7464214.197561595</v>
       </c>
       <c r="O10">
-        <v>7199669.899331889</v>
+        <v>7178890.867954202</v>
       </c>
       <c r="P10">
-        <v>19.6844151153632</v>
+        <v>16.70263137895663</v>
       </c>
       <c r="Q10">
-        <v>0.01493194552480696</v>
+        <v>0.01258658396491038</v>
       </c>
       <c r="R10">
-        <v>50.35778160697978</v>
+        <v>50.76547770199582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11">
+        <v>46.43394653133299</v>
+      </c>
+      <c r="G11">
+        <v>650</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>9.525</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L11">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M11">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N11">
+        <v>8700000</v>
+      </c>
+      <c r="O11">
+        <v>8398859.474771004</v>
+      </c>
+      <c r="P11">
+        <v>20.79657662162296</v>
+      </c>
+      <c r="Q11">
+        <v>0.01560456662676434</v>
+      </c>
+      <c r="R11">
+        <v>47.11503307039311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12">
+        <v>46.43396317120074</v>
+      </c>
+      <c r="G12">
+        <v>650</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <v>9.525</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L12">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M12">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N12">
+        <v>8398859.474771004</v>
+      </c>
+      <c r="O12">
+        <v>8087134.124758339</v>
+      </c>
+      <c r="P12">
+        <v>20.81261300103685</v>
+      </c>
+      <c r="Q12">
+        <v>0.0156336584978714</v>
+      </c>
+      <c r="R12">
+        <v>47.96732662464657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13">
+        <v>46.43400431306083</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>9.320565</v>
+      </c>
+      <c r="N13">
+        <v>7763560.610471186</v>
+      </c>
+      <c r="O13">
+        <v>7383470.48563105</v>
+      </c>
+      <c r="P13">
+        <v>20.84683130607604</v>
+      </c>
+      <c r="Q13">
+        <v>0.01569829257952799</v>
+      </c>
+      <c r="R13">
+        <v>50.08924769902459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14">
+        <v>46.09388407944539</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L14">
+        <v>15.75</v>
+      </c>
+      <c r="M14">
+        <v>9.786593249999999</v>
+      </c>
+      <c r="N14">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O14">
+        <v>8409148.837925274</v>
+      </c>
+      <c r="P14">
+        <v>20.52825958331113</v>
+      </c>
+      <c r="Q14">
+        <v>0.01540267391271496</v>
+      </c>
+      <c r="R14">
+        <v>47.08775255452016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15">
+        <v>37.98122695515069</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L15">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M15">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N15">
+        <v>8045503.454959163</v>
+      </c>
+      <c r="O15">
+        <v>7779532.101966616</v>
+      </c>
+      <c r="P15">
+        <v>16.94594258681969</v>
+      </c>
+      <c r="Q15">
+        <v>0.01274300291663943</v>
+      </c>
+      <c r="R15">
+        <v>48.85867432406834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16">
+        <v>37.98122726680859</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L16">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N16">
+        <v>7779532.101966616</v>
+      </c>
+      <c r="O16">
+        <v>7504613.387573014</v>
+      </c>
+      <c r="P16">
+        <v>16.96156655585824</v>
+      </c>
+      <c r="Q16">
+        <v>0.01276713168347706</v>
+      </c>
+      <c r="R16">
+        <v>49.70227555901907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17">
+        <v>37.98122809115461</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>7219749.961964826</v>
+      </c>
+      <c r="O17">
+        <v>6914386.513824837</v>
+      </c>
+      <c r="P17">
+        <v>16.99343416662326</v>
+      </c>
+      <c r="Q17">
+        <v>0.01281770246305712</v>
+      </c>
+      <c r="R17">
+        <v>51.68417033425612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18">
+        <v>37.98122846430446</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>6914386.513824837</v>
+      </c>
+      <c r="O18">
+        <v>6595535.474816897</v>
+      </c>
+      <c r="P18">
+        <v>17.00968082827888</v>
+      </c>
+      <c r="Q18">
+        <v>0.01284456981637905</v>
+      </c>
+      <c r="R18">
+        <v>52.86498296636356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19">
+        <v>37.5641981475186</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O19">
+        <v>8511420.347084114</v>
+      </c>
+      <c r="P19">
+        <v>16.73299222038259</v>
+      </c>
+      <c r="Q19">
+        <v>0.01255052046610519</v>
+      </c>
+      <c r="R19">
+        <v>46.81914822944214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20">
+        <v>37.56419814974704</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>8511420.347084114</v>
+      </c>
+      <c r="O20">
+        <v>8257374.936377738</v>
+      </c>
+      <c r="P20">
+        <v>16.74884459922409</v>
+      </c>
+      <c r="Q20">
+        <v>0.01257377306090404</v>
+      </c>
+      <c r="R20">
+        <v>47.49513424179604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21">
+        <v>37.56419815488573</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>7995694.375433915</v>
+      </c>
+      <c r="O21">
+        <v>7725624.074376059</v>
+      </c>
+      <c r="P21">
+        <v>16.78068774256787</v>
+      </c>
+      <c r="Q21">
+        <v>0.01262107350963874</v>
+      </c>
+      <c r="R21">
+        <v>49.02070849994154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22">
+        <v>37.5641981571567</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>7725624.074376059</v>
+      </c>
+      <c r="O22">
+        <v>7446250.424235797</v>
+      </c>
+      <c r="P22">
+        <v>16.79667895786326</v>
+      </c>
+      <c r="Q22">
+        <v>0.01264571949916202</v>
+      </c>
+      <c r="R22">
+        <v>49.88708949571853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23">
+        <v>37.31823697280158</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O23">
+        <v>8514588.068679892</v>
+      </c>
+      <c r="P23">
+        <v>16.62342873082395</v>
+      </c>
+      <c r="Q23">
+        <v>0.01246820571916181</v>
+      </c>
+      <c r="R23">
+        <v>46.81090180498293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24">
+        <v>37.31823697278637</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8514588.068679892</v>
+      </c>
+      <c r="O24">
+        <v>8263893.339292661</v>
+      </c>
+      <c r="P24">
+        <v>16.63917730845947</v>
+      </c>
+      <c r="Q24">
+        <v>0.01249116958620237</v>
+      </c>
+      <c r="R24">
+        <v>47.47733043109681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25">
+        <v>37.31823697280323</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>8005773.332778353</v>
+      </c>
+      <c r="O25">
+        <v>7739504.085621502</v>
+      </c>
+      <c r="P25">
+        <v>16.67081194193998</v>
+      </c>
+      <c r="Q25">
+        <v>0.01253783275545133</v>
+      </c>
+      <c r="R25">
+        <v>48.97883457136456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26">
+        <v>37.31823697280998</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>7739504.085621502</v>
+      </c>
+      <c r="O26">
+        <v>7464214.197561595</v>
+      </c>
+      <c r="P26">
+        <v>16.68669844677546</v>
+      </c>
+      <c r="Q26">
+        <v>0.01256209459642122</v>
+      </c>
+      <c r="R26">
+        <v>49.829961895179</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +3260,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2283,43 +3275,43 @@
         <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2327,13 +3319,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2342,22 +3334,22 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.249528373372977</v>
+        <v>1.254125954373299</v>
       </c>
       <c r="I2">
-        <v>159.9613526229309</v>
+        <v>164.97749673805</v>
       </c>
       <c r="J2">
-        <v>16.73624178258632</v>
+        <v>17.26106480608766</v>
       </c>
       <c r="K2">
-        <v>22443.63495528391</v>
+        <v>23147.43312625968</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.73624178258632</v>
+        <v>17.26106480608766</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2366,13 +3358,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>12877940.82119193</v>
+        <v>13656007.70601235</v>
       </c>
       <c r="Q2">
         <v>16916025.69007904</v>
       </c>
       <c r="R2">
-        <v>29793966.51127097</v>
+        <v>30572033.39609139</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2380,13 +3372,13 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2395,22 +3387,22 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.389852430514243</v>
+        <v>1.398856592769307</v>
       </c>
       <c r="I3">
-        <v>194.9616350476124</v>
+        <v>201.8048753535352</v>
       </c>
       <c r="J3">
-        <v>20.39820874843895</v>
+        <v>21.11419496922467</v>
       </c>
       <c r="K3">
-        <v>27354.40589583159</v>
+        <v>28314.55773762967</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.39820874843895</v>
+        <v>21.11419496922467</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2419,13 +3411,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>18396941.48782986</v>
+        <v>19500575.65619699</v>
       </c>
       <c r="Q3">
         <v>16916025.69007904</v>
       </c>
       <c r="R3">
-        <v>35312967.1779089</v>
+        <v>36416601.34627603</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2433,31 +3425,31 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.220130427294922</v>
+        <v>1.223848244362879</v>
       </c>
       <c r="I4">
-        <v>115.4207314608884</v>
+        <v>119.0208351805791</v>
       </c>
       <c r="J4">
-        <v>12.07609986273322</v>
+        <v>12.45276713459083</v>
       </c>
       <c r="K4">
-        <v>16194.29143792251</v>
+        <v>16699.40978282899</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2488,7 +3480,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2496,15 +3488,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2512,23 +3504,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>7776260.73369168</v>
+        <v>7763560.610471186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B4">
-        <v>7009429.732307871</v>
+        <v>6983733.413012371</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>8758481.331682835</v>
@@ -2536,31 +3528,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B6">
-        <v>8054554.009030856</v>
+        <v>8045503.454959163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="B7">
-        <v>7241556.87110731</v>
+        <v>7219749.961964826</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>6301734.730529783</v>
+        <v>6261171.714781519</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>8758481.331682835</v>
@@ -2568,23 +3560,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B10">
-        <v>8005025.090800688</v>
+        <v>7995694.375433915</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B11">
-        <v>7178315.642124212</v>
+        <v>7156509.291102832</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B12">
         <v>8758481.331682835</v>
@@ -2592,18 +3584,146 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B13">
-        <v>8014671.579439786</v>
+        <v>8005773.332778353</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B14">
-        <v>7199669.899331889</v>
+        <v>7178890.867954202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>8398859.474771004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>8087134.124758339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17">
+        <v>7383470.48563105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18">
+        <v>8409148.837925274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>7779532.101966616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20">
+        <v>7504613.387573014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>6914386.513824837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22">
+        <v>6595535.474816897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23">
+        <v>8511420.347084114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>8257374.936377738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25">
+        <v>7725624.074376059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26">
+        <v>7446250.424235797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27">
+        <v>8514588.068679892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28">
+        <v>8263893.339292661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29">
+        <v>7739504.085621502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30">
+        <v>7464214.197561595</v>
       </c>
     </row>
   </sheetData>
@@ -2621,36 +3741,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112661993300655</v>
+        <v>8.112657644361761</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -2659,21 +3779,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520643998001</v>
+        <v>1150.520027240643</v>
       </c>
       <c r="G2">
-        <v>2.120762051966973E-05</v>
+        <v>-3.239919584019192E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642715987</v>
+        <v>21.09291642722141</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -2682,21 +3802,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999990889</v>
+        <v>2991.352999999617</v>
       </c>
       <c r="G3">
-        <v>-3.045917068372104E-10</v>
+        <v>-1.281764481879657E-11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054554748</v>
+        <v>16.22532054559482</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -2705,10 +3825,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799992992</v>
+        <v>2301.040799999706</v>
       </c>
       <c r="G4">
-        <v>-3.045748596043959E-10</v>
+        <v>-1.28092230674746E-11</v>
       </c>
     </row>
   </sheetData>
